--- a/story/主线剧情/main/level_st_07-04.xlsx
+++ b/story/主线剧情/main/level_st_07-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="243">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -502,6 +505,246 @@
   </si>
   <si>
     <t xml:space="preserve">[name="摂政王"]  サルカズの正当なる王は、凡百の無名な継承者に勝る。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  I can return her to you, Wei.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Stop!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Don’t do it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Oh? You and your mighty executioners have made my life hell.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Of course I’m willing to return her to you... But the cuffs on her body will tear Lungmen in half.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Damn you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Wei, this is the method you used against me. The way you forced me out of Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  But now, our roles are reversed. I’m the guest, as well as the poisoner.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Kashchey. You killed my brother.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  No, no, Wei. You slew your own brother.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  My role is irrelevant. Your brother’s tragedy may have come from a Unicorn’s secret orders, or from the wrath of a Lung. Whether it was me who leaked the news... ultimately, does not matter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  What’s important, Wei, the one thing you mustn’t forget... is that your Chi Xiao drank his blood. You did it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Chi Xiao, the dragonslaying sword. And who is it that this blade slew? Your friends. Your family. Your people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Dragonslaying sword? How ironic that your people forged a weapon that would be turned against its own kind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You’ve gone too far.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Very well. I offer you a choice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Choose. Slay me, and take back your niece, but lose your city as a result. Or, let us walk free.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Don’t draw that sword. You know the consequences.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  (Grinds teeth audibly)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Relax, Wei. I’ve let you choose your own fate. If you don’t take my generous offer, then you and I both, all your citizens, and these two lovely sisters... will all perish.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  What are you scheming?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Wei, old Wei... I know you well. Too well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  You’ve always had a choice, isn’t that right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  What will your precious citizens think when they hear that their lives have been placed upon a scale? And on the other side... is a young dragon whose name they’ve never heard.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  As for me, I don’t even have a reason to hurt her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Since I was negligent enough to let you step foot back into this city, there’s no reason to let you leave again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Tal!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Oh really?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I’ll kill you myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Now, now. There’s no need for that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  My life is not yours to take.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  By the way, you can save her before I put the handcuffs on her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  But you’ll also have to think about defending against me. Defeating me. Striking me down. Annihilating me... And, what I am going to do next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kashchey"]  Wei, you’re actually afraid of me, aren’t you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  She’s here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Finally.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’ll kill her myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Confessarius, answer me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  The Leader of Reunion, is there any value in forming an alliance?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  Why ask me about things that you know very well, Your Majesty?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  A youth with no possessions, background, or capital cannot possibly seek to take an important Ursus city alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  The uninfected rulers know not what to make of her actions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  They will panic, overreact, and try to resolve the chaos through more destruction — and use the chaos caused by the Infected as a front.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  But, we Sarkaz know better.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Regent"]  What do you think of the team she finally left here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  They are unworthy, Your Majesty. As you foresaw, there is no hope for them. They are not trained soldiers, unable to cause the violence that we seek.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Regent"]  Eliminating them will not sever Talulah’s power. We lack an opportunity to take her out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  Right, Your Majesty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  The situation that she fomented and the power she wielded to force the issue... shows that she is no one-eyed leader among the blind, or some pampered princeling awaiting the throne.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  She is a conspirator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Regent"]  Even if that is the case, I require a comprehensive response from the Sarkaz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  In that case, I have two bits of good news. First, we already have a lead on our search for the Lord of Fiends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  Rhodes Island hasn't yet been manipulated by foreign forces.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Regent"]  Don’t waste time. We need her to begin right now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  Please do not be angered, and hear me out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Confessarius"]  “She” is ready.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Regent"]  That power is rightfully ours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Regent"]  The true King of Sarkaz is mightier than the heir of any unknown name.
 </t>
   </si>
   <si>
@@ -1096,13 +1339,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,676 +1355,862 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B62" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
-      </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="D62" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/story/主线剧情/main/level_st_07-04.xlsx
+++ b/story/主线剧情/main/level_st_07-04.xlsx
@@ -796,7 +796,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="카셰이"]  정말 중요한 건 말이다, 웨이. 유일하게 중요한 사실은…… 네가 네 손의 적소로, 네 형제를 죽였다는 거야. 직접.
+    <t xml:space="preserve">[name="카셰이"]  정말 중요한 건 말이다, 웨이. 유일하게 중요한 사실은…… 네가 네 손에 든 그 적소로, 네 형제를 죽였다는 거야. 직접.
 </t>
   </si>
   <si>
@@ -976,7 +976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="섭정왕"]  그것이야말로 우리가 원하던 힘이다.
+    <t xml:space="preserve">[name="섭정왕"]  이것이야말로 우리가 원하던 힘이다.
 </t>
   </si>
   <si>
